--- a/NESC_Review/NESCPreprintFinalReport_AMD-Dispositions.xlsx
+++ b/NESC_Review/NESCPreprintFinalReport_AMD-Dispositions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\LunarEjecta\NESC_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA3CBC-8B58-4497-86F6-F2E6F9A7ECB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42AE188-D4BE-4B57-9535-6F2F097C38BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D067CFDB-CA8B-434A-8177-0808B8CE9409}"/>
+    <workbookView xWindow="20250" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D067CFDB-CA8B-434A-8177-0808B8CE9409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -283,6 +283,35 @@
   </si>
   <si>
     <t>The relative HLS penetration risk from lunar ejecta compared to total penetration risk while on the lunar surface is dependent on spacecraft construction. The ratio of the lunar ejecta penetration risk to the total penetration risk can vary from less than a few percent up to half of the total risk while on the lunar surface.</t>
+  </si>
+  <si>
+    <t>The use of only three ejecta velocity bins overestimates penetration risk by a factor of 1.4. Three bins are conservative and adequate for an engineering model.</t>
+  </si>
+  <si>
+    <t>Ascending ejecta particles from nearby primary impacts can have speeds greater
+than escape velocity. This will contribute to the overall MMOD risk for the assessed asset.</t>
+  </si>
+  <si>
+    <t>Include high-velocity (i.e., ≥ escape velocity) particle flux in the DSNE
+tables if ascending ejecta are added to the model.</t>
+  </si>
+  <si>
+    <t>A monte carlo approach will be used.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Have discussion with LADEE guys</t>
+  </si>
+  <si>
+    <t>Talk to Speyerer</t>
+  </si>
+  <si>
+    <t>Will consider recommendation. Possibly use 1-sigma instead of average.</t>
+  </si>
+  <si>
+    <t>Don't need to change.</t>
   </si>
 </sst>
 </file>
@@ -315,13 +344,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,9 +361,44 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -344,41 +408,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -687,16 +821,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD3AC73-A65F-44D5-8BE2-51C789B5A1BE}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" customWidth="1"/>
@@ -706,595 +841,833 @@
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="H1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="C3" s="2">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C4">
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="C5">
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="H6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="L7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L8" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="M11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>8</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:13" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5">
         <v>11</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="2">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="E20" s="2">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5">
+        <v>13</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="2">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="J21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5">
         <v>15</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G22" s="3"/>
+      <c r="H22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5">
         <v>16</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5">
         <v>17</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5">
         <v>18</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>68</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5">
+        <v>19</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:K30 L4:L5 L7:L8 M11 M23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$I3="high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:K29 L4:L5 L7:L8 M11 M23">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$I3="medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$I3="low"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$I3="none"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$I12="high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I12="none"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$I12="low"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$I12="medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
